--- a/First iteration/scripts/APA Analisys/RecordingsGWandQSdata.xlsx
+++ b/First iteration/scripts/APA Analisys/RecordingsGWandQSdata.xlsx
@@ -16,17 +16,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="73">
   <si>
     <t>Recordings Munich Forschungshaus 4/5/6.2.2014</t>
   </si>
   <si>
-    <t>4 km/h</t>
-  </si>
-  <si>
-    <t>6 km/h</t>
-  </si>
-  <si>
     <t>2 km/h</t>
   </si>
   <si>
@@ -93,9 +87,6 @@
     <t>height: 173</t>
   </si>
   <si>
-    <t>GaitWatch_1344_050214_1904.mat</t>
-  </si>
-  <si>
     <t>GaitWatch_1345_050214_1909.mat</t>
   </si>
   <si>
@@ -111,51 +102,12 @@
     <t>legs: 92/54</t>
   </si>
   <si>
-    <t>GaitWatch_1348_060214_1453.mat</t>
-  </si>
-  <si>
     <t>GaitWatch_1349_060214_1456.mat</t>
   </si>
   <si>
     <t>GaitWatch_1350_060214_1458.mat</t>
   </si>
   <si>
-    <t>Subject: Matthias Mulazzani</t>
-  </si>
-  <si>
-    <t>legs: 94/53</t>
-  </si>
-  <si>
-    <t>height: 190</t>
-  </si>
-  <si>
-    <t>GaitWatch_1351_060214_1525.mat</t>
-  </si>
-  <si>
-    <t>GaitWatch_1352_060214_1528.mat</t>
-  </si>
-  <si>
-    <t>GaitWatch_1353_060214_1530.mat</t>
-  </si>
-  <si>
-    <t>Subject: Filip Filipoppulos</t>
-  </si>
-  <si>
-    <t>legs: 106/62</t>
-  </si>
-  <si>
-    <t>height: 196</t>
-  </si>
-  <si>
-    <t>GaitWatch_1354_060214_1559.mat</t>
-  </si>
-  <si>
-    <t>GaitWatch_1355_060214_1601.mat</t>
-  </si>
-  <si>
-    <t>GaitWatch_1356_060214_1603.mat</t>
-  </si>
-  <si>
     <t>Subject: Lei Zang</t>
   </si>
   <si>
@@ -165,12 +117,6 @@
     <t>height: 178</t>
   </si>
   <si>
-    <t>Q/MOMO</t>
-  </si>
-  <si>
-    <t>No gaitWatch Recordings!</t>
-  </si>
-  <si>
     <t>Subject: Martin Bartels</t>
   </si>
   <si>
@@ -183,9 +129,6 @@
     <t>GW/Q/MOMO/soles</t>
   </si>
   <si>
-    <t>GaitWatch_1358_070214_1255.mat</t>
-  </si>
-  <si>
     <t>GaitWatch_1359_070214_1257.mat</t>
   </si>
   <si>
@@ -201,9 +144,6 @@
     <t>height: 187</t>
   </si>
   <si>
-    <t>GaitWatch_1361_070214_1325.mat</t>
-  </si>
-  <si>
     <t>GaitWatch_1362_070214_1327.mat</t>
   </si>
   <si>
@@ -216,12 +156,6 @@
     <t>GaitWatch_1364_070214_1333.mat</t>
   </si>
   <si>
-    <t>GaitWatch_1365_070214_1400.mat</t>
-  </si>
-  <si>
-    <t>GaitWatch_1366_070214_1402.mat</t>
-  </si>
-  <si>
     <t>soles not working</t>
   </si>
   <si>
@@ -234,9 +168,6 @@
     <t>GW files</t>
   </si>
   <si>
-    <t>gw_subj7_01.mat</t>
-  </si>
-  <si>
     <t>gw_subj6_03.mat</t>
   </si>
   <si>
@@ -267,54 +198,18 @@
     <t>gw_subj7_04.mat</t>
   </si>
   <si>
-    <t>gw_subj8_01.mat</t>
-  </si>
-  <si>
     <t>gw_subj8_02.mat</t>
   </si>
   <si>
     <t>gw_subj8_03.mat</t>
   </si>
   <si>
-    <t>gw_subj9_01.mat</t>
-  </si>
-  <si>
-    <t>gw_subj9_02.mat</t>
-  </si>
-  <si>
-    <t>gw_subj9_03.mat</t>
-  </si>
-  <si>
-    <t>gw_subj10_01.mat</t>
-  </si>
-  <si>
-    <t>gw_subj10_02.mat</t>
-  </si>
-  <si>
-    <t>gw_subj10_03.mat</t>
-  </si>
-  <si>
-    <t>gw_subj11_01.mat</t>
-  </si>
-  <si>
-    <t>gw_subj11_02.mat</t>
-  </si>
-  <si>
-    <t>gw_subj11_03.mat</t>
-  </si>
-  <si>
-    <t>gw_subj12_01.mat</t>
-  </si>
-  <si>
     <t>gw_subj12_02.mat</t>
   </si>
   <si>
     <t>gw_subj12_03.mat</t>
   </si>
   <si>
-    <t>gw_subj13_01.mat</t>
-  </si>
-  <si>
     <t>gw_subj13_02.mat</t>
   </si>
   <si>
@@ -324,13 +219,22 @@
     <t>gw_subj13_04.mat</t>
   </si>
   <si>
-    <t>gw_subj11_04.mat</t>
-  </si>
-  <si>
-    <t>gw_subj11_05.mat</t>
-  </si>
-  <si>
     <t>gw_subj11_06.mat</t>
+  </si>
+  <si>
+    <t>Km/h</t>
+  </si>
+  <si>
+    <t>4  km/h</t>
+  </si>
+  <si>
+    <t>6  km/h</t>
+  </si>
+  <si>
+    <t>2  km/h</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 6  km/h</t>
   </si>
 </sst>
 </file>
@@ -374,15 +278,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -696,10 +597,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:S64"/>
+  <dimension ref="B2:S57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
-      <selection activeCell="G64" sqref="G64"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E37" sqref="E37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -709,32 +610,35 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="7"/>
-      <c r="D2" s="7"/>
-      <c r="E2" s="7"/>
+      <c r="C2" s="6"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
     </row>
     <row r="3" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="G3" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="J3" s="5" t="s">
-        <v>71</v>
+      <c r="D3" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="J3" s="4" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="4" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B4" s="6" t="s">
+      <c r="B4" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" s="5"/>
+      <c r="D4" s="5"/>
+      <c r="E4" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F4" s="1" t="s">
         <v>5</v>
-      </c>
-      <c r="C4" s="6"/>
-      <c r="D4" s="6"/>
-      <c r="E4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>7</v>
       </c>
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
@@ -746,22 +650,22 @@
         <v>0.75486111111111109</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E5" s="1"/>
       <c r="F5" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>79</v>
+        <v>56</v>
       </c>
       <c r="H5" s="1"/>
       <c r="I5" s="1"/>
       <c r="J5" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="K5" s="2"/>
       <c r="L5" s="1"/>
@@ -778,22 +682,22 @@
         <v>0.75902777777777775</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
       <c r="G6" s="1" t="s">
-        <v>78</v>
+        <v>55</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="I6" s="1"/>
       <c r="J6" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="K6" s="2"/>
       <c r="L6" s="1"/>
@@ -810,22 +714,22 @@
         <v>0.76111111111111107</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>1</v>
+        <v>69</v>
       </c>
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
       <c r="G7" s="1" t="s">
-        <v>77</v>
+        <v>54</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="I7" s="1"/>
       <c r="J7" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="K7" s="2"/>
       <c r="L7" s="1"/>
@@ -842,22 +746,22 @@
         <v>0.76250000000000007</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>2</v>
+        <v>70</v>
       </c>
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
       <c r="G8" s="1" t="s">
-        <v>76</v>
+        <v>53</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="I8" s="1"/>
       <c r="J8" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="K8" s="1"/>
       <c r="L8" s="1"/>
@@ -879,9 +783,9 @@
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
       <c r="J9" s="1"/>
-      <c r="K9" s="6"/>
-      <c r="L9" s="6"/>
-      <c r="M9" s="6"/>
+      <c r="K9" s="5"/>
+      <c r="L9" s="5"/>
+      <c r="M9" s="5"/>
       <c r="N9" s="1"/>
       <c r="O9" s="1"/>
       <c r="P9" s="1"/>
@@ -890,16 +794,16 @@
       <c r="S9" s="1"/>
     </row>
     <row r="10" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B10" s="6" t="s">
+      <c r="B10" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C10" s="5"/>
+      <c r="D10" s="5"/>
+      <c r="E10" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F10" s="1" t="s">
         <v>16</v>
-      </c>
-      <c r="C10" s="6"/>
-      <c r="D10" s="6"/>
-      <c r="E10" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>18</v>
       </c>
       <c r="G10" s="1"/>
       <c r="H10" s="1"/>
@@ -915,16 +819,28 @@
       <c r="R10" s="1"/>
       <c r="S10" s="1"/>
     </row>
-    <row r="11" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B11" s="1"/>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
+    <row r="11" spans="2:19" ht="30" x14ac:dyDescent="0.25">
+      <c r="B11" s="2">
+        <v>0.77500000000000002</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>71</v>
+      </c>
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
-      <c r="G11" s="1"/>
-      <c r="H11" s="1"/>
+      <c r="G11" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="H11" s="1">
+        <v>35</v>
+      </c>
       <c r="I11" s="1"/>
-      <c r="J11" s="1"/>
+      <c r="J11" s="1" t="s">
+        <v>17</v>
+      </c>
       <c r="K11" s="2"/>
       <c r="L11" s="1"/>
       <c r="M11" s="1"/>
@@ -937,25 +853,25 @@
     </row>
     <row r="12" spans="2:19" ht="30" x14ac:dyDescent="0.25">
       <c r="B12" s="2">
-        <v>0.77500000000000002</v>
+        <v>0.77708333333333324</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>3</v>
+        <v>69</v>
       </c>
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
       <c r="G12" s="1" t="s">
-        <v>75</v>
+        <v>51</v>
       </c>
       <c r="H12" s="1">
-        <v>35</v>
+        <v>76</v>
       </c>
       <c r="I12" s="1"/>
       <c r="J12" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K12" s="2"/>
       <c r="L12" s="1"/>
@@ -969,25 +885,25 @@
     </row>
     <row r="13" spans="2:19" ht="30" x14ac:dyDescent="0.25">
       <c r="B13" s="2">
-        <v>0.77708333333333324</v>
+        <v>0.77847222222222223</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>1</v>
+        <v>70</v>
       </c>
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
       <c r="G13" s="1" t="s">
-        <v>74</v>
+        <v>50</v>
       </c>
       <c r="H13" s="1">
-        <v>76</v>
+        <v>114</v>
       </c>
       <c r="I13" s="1"/>
       <c r="J13" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="K13" s="2"/>
       <c r="L13" s="1"/>
@@ -999,28 +915,16 @@
       <c r="R13" s="1"/>
       <c r="S13" s="1"/>
     </row>
-    <row r="14" spans="2:19" ht="30" x14ac:dyDescent="0.25">
-      <c r="B14" s="2">
-        <v>0.77847222222222223</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>2</v>
-      </c>
+    <row r="14" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B14" s="1"/>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
-      <c r="G14" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="H14" s="1">
-        <v>114</v>
-      </c>
+      <c r="G14" s="1"/>
+      <c r="H14" s="1"/>
       <c r="I14" s="1"/>
-      <c r="J14" s="1" t="s">
-        <v>21</v>
-      </c>
+      <c r="J14" s="1"/>
       <c r="K14" s="1"/>
       <c r="L14" s="1"/>
       <c r="M14" s="1"/>
@@ -1032,18 +936,24 @@
       <c r="S14" s="1"/>
     </row>
     <row r="15" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B15" s="1"/>
-      <c r="C15" s="1"/>
-      <c r="D15" s="1"/>
-      <c r="E15" s="1"/>
-      <c r="F15" s="1"/>
+      <c r="B15" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C15" s="5"/>
+      <c r="D15" s="5"/>
+      <c r="E15" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>22</v>
+      </c>
       <c r="G15" s="1"/>
       <c r="H15" s="1"/>
       <c r="I15" s="1"/>
       <c r="J15" s="1"/>
-      <c r="K15" s="6"/>
-      <c r="L15" s="6"/>
-      <c r="M15" s="6"/>
+      <c r="K15" s="5"/>
+      <c r="L15" s="5"/>
+      <c r="M15" s="5"/>
       <c r="N15" s="1"/>
       <c r="O15" s="1"/>
       <c r="P15" s="1"/>
@@ -1051,22 +961,26 @@
       <c r="R15" s="1"/>
       <c r="S15" s="1"/>
     </row>
-    <row r="16" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B16" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="C16" s="6"/>
-      <c r="D16" s="6"/>
-      <c r="E16" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="F16" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="G16" s="1"/>
+    <row r="16" spans="2:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B16" s="2">
+        <v>0.79791666666666661</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="E16" s="1"/>
+      <c r="F16" s="1"/>
+      <c r="G16" s="1" t="s">
+        <v>57</v>
+      </c>
       <c r="H16" s="1"/>
       <c r="I16" s="1"/>
-      <c r="J16" s="1"/>
+      <c r="J16" s="1" t="s">
+        <v>23</v>
+      </c>
       <c r="K16" s="1"/>
       <c r="L16" s="1"/>
       <c r="M16" s="1"/>
@@ -1077,16 +991,26 @@
       <c r="R16" s="1"/>
       <c r="S16" s="1"/>
     </row>
-    <row r="17" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B17" s="1"/>
-      <c r="C17" s="1"/>
-      <c r="D17" s="1"/>
+    <row r="17" spans="2:19" ht="30" x14ac:dyDescent="0.25">
+      <c r="B17" s="2">
+        <v>0.7993055555555556</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>69</v>
+      </c>
       <c r="E17" s="1"/>
       <c r="F17" s="1"/>
-      <c r="G17" s="1"/>
+      <c r="G17" s="1" t="s">
+        <v>58</v>
+      </c>
       <c r="H17" s="1"/>
       <c r="I17" s="1"/>
-      <c r="J17" s="1"/>
+      <c r="J17" s="1" t="s">
+        <v>24</v>
+      </c>
       <c r="K17" s="2"/>
       <c r="L17" s="1"/>
       <c r="M17" s="1"/>
@@ -1099,18 +1023,18 @@
     </row>
     <row r="18" spans="2:19" ht="30" x14ac:dyDescent="0.25">
       <c r="B18" s="2">
-        <v>0.79513888888888884</v>
+        <v>0.80069444444444438</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>3</v>
+        <v>70</v>
       </c>
       <c r="E18" s="1"/>
       <c r="F18" s="1"/>
       <c r="G18" s="1" t="s">
-        <v>72</v>
+        <v>59</v>
       </c>
       <c r="H18" s="1"/>
       <c r="I18" s="1"/>
@@ -1127,26 +1051,16 @@
       <c r="R18" s="1"/>
       <c r="S18" s="1"/>
     </row>
-    <row r="19" spans="2:19" ht="30" x14ac:dyDescent="0.25">
-      <c r="B19" s="2">
-        <v>0.79791666666666661</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>3</v>
-      </c>
+    <row r="19" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B19" s="1"/>
+      <c r="C19" s="1"/>
+      <c r="D19" s="1"/>
       <c r="E19" s="1"/>
       <c r="F19" s="1"/>
-      <c r="G19" s="1" t="s">
-        <v>80</v>
-      </c>
+      <c r="G19" s="1"/>
       <c r="H19" s="1"/>
       <c r="I19" s="1"/>
-      <c r="J19" s="1" t="s">
-        <v>26</v>
-      </c>
+      <c r="J19" s="1"/>
       <c r="K19" s="2"/>
       <c r="L19" s="1"/>
       <c r="M19" s="1"/>
@@ -1157,26 +1071,22 @@
       <c r="R19" s="1"/>
       <c r="S19" s="1"/>
     </row>
-    <row r="20" spans="2:19" ht="30" x14ac:dyDescent="0.25">
-      <c r="B20" s="2">
-        <v>0.7993055555555556</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D20" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E20" s="1"/>
-      <c r="F20" s="1"/>
-      <c r="G20" s="1" t="s">
-        <v>81</v>
-      </c>
+    <row r="20" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B20" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C20" s="5"/>
+      <c r="D20" s="5"/>
+      <c r="E20" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G20" s="1"/>
       <c r="H20" s="1"/>
       <c r="I20" s="1"/>
-      <c r="J20" s="1" t="s">
-        <v>27</v>
-      </c>
+      <c r="J20" s="1"/>
       <c r="K20" s="2"/>
       <c r="L20" s="1"/>
       <c r="M20" s="1"/>
@@ -1187,20 +1097,20 @@
       <c r="R20" s="1"/>
       <c r="S20" s="1"/>
     </row>
-    <row r="21" spans="2:19" ht="30" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B21" s="2">
-        <v>0.80069444444444438</v>
+        <v>0.62222222222222223</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>2</v>
+        <v>69</v>
       </c>
       <c r="E21" s="1"/>
       <c r="F21" s="1"/>
       <c r="G21" s="1" t="s">
-        <v>82</v>
+        <v>60</v>
       </c>
       <c r="H21" s="1"/>
       <c r="I21" s="1"/>
@@ -1217,16 +1127,26 @@
       <c r="R21" s="1"/>
       <c r="S21" s="1"/>
     </row>
-    <row r="22" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B22" s="1"/>
-      <c r="C22" s="1"/>
-      <c r="D22" s="1"/>
+    <row r="22" spans="2:19" ht="30" x14ac:dyDescent="0.25">
+      <c r="B22" s="2">
+        <v>0.6166666666666667</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>70</v>
+      </c>
       <c r="E22" s="1"/>
       <c r="F22" s="1"/>
-      <c r="G22" s="1"/>
+      <c r="G22" s="1" t="s">
+        <v>61</v>
+      </c>
       <c r="H22" s="1"/>
       <c r="I22" s="1"/>
-      <c r="J22" s="1"/>
+      <c r="J22" s="1" t="s">
+        <v>29</v>
+      </c>
       <c r="K22" s="2"/>
       <c r="L22" s="1"/>
       <c r="M22" s="1"/>
@@ -1238,17 +1158,11 @@
       <c r="S22" s="1"/>
     </row>
     <row r="23" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B23" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="C23" s="6"/>
-      <c r="D23" s="6"/>
-      <c r="E23" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="F23" s="1" t="s">
-        <v>7</v>
-      </c>
+      <c r="B23" s="1"/>
+      <c r="C23" s="1"/>
+      <c r="D23" s="1"/>
+      <c r="E23" s="1"/>
+      <c r="F23" s="1"/>
       <c r="G23" s="1"/>
       <c r="H23" s="1"/>
       <c r="I23" s="1"/>
@@ -1263,67 +1177,65 @@
       <c r="R23" s="1"/>
       <c r="S23" s="1"/>
     </row>
-    <row r="24" spans="2:19" ht="30" x14ac:dyDescent="0.25">
-      <c r="B24" s="2">
-        <v>0.62083333333333335</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D24" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E24" s="1"/>
-      <c r="F24" s="1"/>
+    <row r="24" spans="2:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B24" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="C24" s="5"/>
+      <c r="D24" s="5"/>
+      <c r="E24" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="F24" s="1">
+        <v>185</v>
+      </c>
       <c r="G24" s="1" t="s">
-        <v>83</v>
+        <v>35</v>
       </c>
       <c r="H24" s="1"/>
       <c r="I24" s="1"/>
-      <c r="J24" s="1" t="s">
-        <v>31</v>
-      </c>
+      <c r="J24" s="1"/>
     </row>
     <row r="25" spans="2:19" ht="30" x14ac:dyDescent="0.25">
       <c r="B25" s="2">
-        <v>0.62222222222222223</v>
+        <v>0.54027777777777775</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>4</v>
+        <v>36</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>1</v>
+        <v>69</v>
       </c>
       <c r="E25" s="1"/>
       <c r="F25" s="1"/>
       <c r="G25" s="1" t="s">
-        <v>84</v>
+        <v>62</v>
       </c>
       <c r="H25" s="1"/>
       <c r="I25" s="1"/>
       <c r="J25" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="26" spans="2:19" ht="30" x14ac:dyDescent="0.25">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="26" spans="2:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B26" s="2">
-        <v>0.6166666666666667</v>
+        <v>0.54166666666666663</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>4</v>
+        <v>36</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>2</v>
+        <v>70</v>
       </c>
       <c r="E26" s="1"/>
       <c r="F26" s="1"/>
       <c r="G26" s="1" t="s">
-        <v>85</v>
+        <v>63</v>
       </c>
       <c r="H26" s="1"/>
       <c r="I26" s="1"/>
       <c r="J26" s="1" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
     </row>
     <row r="27" spans="2:19" x14ac:dyDescent="0.25">
@@ -1338,655 +1250,154 @@
       <c r="J27" s="1"/>
     </row>
     <row r="28" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B28" s="1"/>
-      <c r="C28" s="1"/>
+      <c r="B28" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="C28" s="5"/>
       <c r="D28" s="1"/>
-      <c r="E28" s="1"/>
-      <c r="F28" s="1"/>
+      <c r="E28" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>41</v>
+      </c>
       <c r="G28" s="1"/>
       <c r="H28" s="1"/>
       <c r="I28" s="1"/>
       <c r="J28" s="1"/>
     </row>
-    <row r="29" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B29" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="C29" s="6"/>
-      <c r="D29" s="6"/>
-      <c r="E29" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="F29" s="1" t="s">
+    <row r="29" spans="2:19" ht="30" x14ac:dyDescent="0.25">
+      <c r="B29" s="2">
+        <v>0.56041666666666667</v>
+      </c>
+      <c r="C29" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="G29" s="1"/>
+      <c r="D29" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="E29" s="1"/>
+      <c r="F29" s="1"/>
+      <c r="G29" s="1" t="s">
+        <v>64</v>
+      </c>
       <c r="H29" s="1"/>
       <c r="I29" s="1"/>
-      <c r="J29" s="1"/>
+      <c r="J29" s="1" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="30" spans="2:19" ht="30" x14ac:dyDescent="0.25">
       <c r="B30" s="2">
-        <v>0.6430555555555556</v>
+        <v>0.5625</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>4</v>
+        <v>36</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>3</v>
+        <v>70</v>
       </c>
       <c r="E30" s="1"/>
-      <c r="F30" s="1"/>
+      <c r="F30" s="1" t="s">
+        <v>43</v>
+      </c>
       <c r="G30" s="1" t="s">
-        <v>86</v>
+        <v>65</v>
       </c>
       <c r="H30" s="1"/>
       <c r="I30" s="1"/>
       <c r="J30" s="1" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
     </row>
     <row r="31" spans="2:19" ht="30" x14ac:dyDescent="0.25">
       <c r="B31" s="2">
-        <v>0.64444444444444449</v>
+        <v>0.56597222222222221</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>4</v>
+        <v>36</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>1</v>
+        <v>72</v>
       </c>
       <c r="E31" s="1"/>
       <c r="F31" s="1"/>
       <c r="G31" s="1" t="s">
-        <v>87</v>
+        <v>66</v>
       </c>
       <c r="H31" s="1"/>
       <c r="I31" s="1"/>
       <c r="J31" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="32" spans="2:19" ht="30" x14ac:dyDescent="0.25">
-      <c r="B32" s="2">
-        <v>0.64583333333333337</v>
-      </c>
-      <c r="C32" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D32" s="1" t="s">
-        <v>2</v>
-      </c>
+        <v>45</v>
+      </c>
+    </row>
+    <row r="32" spans="2:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B32" s="1"/>
+      <c r="C32" s="1"/>
+      <c r="D32" s="1"/>
       <c r="E32" s="1"/>
       <c r="F32" s="1"/>
-      <c r="G32" s="1" t="s">
-        <v>88</v>
-      </c>
+      <c r="G32" s="1"/>
       <c r="H32" s="1"/>
       <c r="I32" s="1"/>
-      <c r="J32" s="1" t="s">
-        <v>39</v>
-      </c>
+      <c r="J32" s="1"/>
     </row>
     <row r="33" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B33" s="1"/>
-      <c r="C33" s="1"/>
-      <c r="D33" s="1"/>
-      <c r="E33" s="1"/>
-      <c r="F33" s="1"/>
+      <c r="B33" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C33" s="5"/>
+      <c r="D33" s="3"/>
+      <c r="E33" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F33" s="1" t="s">
+        <v>32</v>
+      </c>
       <c r="G33" s="1"/>
       <c r="H33" s="1"/>
       <c r="I33" s="1"/>
       <c r="J33" s="1"/>
     </row>
-    <row r="34" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B34" s="1"/>
-      <c r="C34" s="1"/>
-      <c r="D34" s="1"/>
+    <row r="34" spans="2:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="B34" s="2">
+        <v>0.5854166666666667</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>70</v>
+      </c>
       <c r="E34" s="1"/>
-      <c r="F34" s="1"/>
-      <c r="G34" s="1"/>
+      <c r="F34" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="G34" s="1" t="s">
+        <v>67</v>
+      </c>
       <c r="H34" s="1"/>
       <c r="I34" s="1"/>
-      <c r="J34" s="1"/>
-    </row>
-    <row r="35" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B35" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="C35" s="6"/>
-      <c r="D35" s="6"/>
-      <c r="E35" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="F35" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="G35" s="1"/>
-      <c r="H35" s="1"/>
-      <c r="I35" s="1"/>
-      <c r="J35" s="1"/>
-    </row>
-    <row r="36" spans="2:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="B36" s="3">
-        <v>0.66597222222222219</v>
-      </c>
-      <c r="C36" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D36" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E36" s="1"/>
-      <c r="F36" s="1"/>
-      <c r="G36" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="H36" s="1"/>
-      <c r="I36" s="1"/>
-      <c r="J36" s="1" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="37" spans="2:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="B37" s="2">
-        <v>0.66736111111111107</v>
-      </c>
-      <c r="C37" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D37" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E37" s="1"/>
-      <c r="F37" s="1"/>
-      <c r="G37" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="H37" s="1"/>
-      <c r="I37" s="1"/>
-      <c r="J37" s="1" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="38" spans="2:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="B38" s="2">
-        <v>0.6694444444444444</v>
-      </c>
-      <c r="C38" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D38" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E38" s="1"/>
-      <c r="F38" s="1"/>
-      <c r="G38" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="H38" s="1"/>
-      <c r="I38" s="1"/>
-      <c r="J38" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="39" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B39" s="1"/>
-      <c r="C39" s="1"/>
-      <c r="D39" s="1"/>
-      <c r="E39" s="1"/>
-      <c r="F39" s="1"/>
-      <c r="G39" s="1"/>
-      <c r="H39" s="1"/>
-      <c r="I39" s="1"/>
-      <c r="J39" s="1"/>
-    </row>
-    <row r="40" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B40" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="C40" s="6"/>
-      <c r="D40" s="6"/>
-      <c r="E40" s="1" t="s">
+      <c r="J34" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="F40" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="G40" s="1"/>
-      <c r="H40" s="1"/>
-      <c r="I40" s="1"/>
-      <c r="J40" s="1"/>
-    </row>
-    <row r="41" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B41" s="1"/>
-      <c r="C41" s="1"/>
-      <c r="D41" s="1"/>
-      <c r="E41" s="1"/>
-      <c r="F41" s="1"/>
-      <c r="G41" s="1"/>
-      <c r="H41" s="1"/>
-      <c r="I41" s="1"/>
-      <c r="J41" s="1"/>
-    </row>
-    <row r="42" spans="2:10" ht="45" x14ac:dyDescent="0.25">
-      <c r="B42" s="2">
-        <v>0.68680555555555556</v>
-      </c>
-      <c r="C42" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="D42" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E42" s="1"/>
-      <c r="F42" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="G42" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="H42" s="1"/>
-      <c r="I42" s="1"/>
-      <c r="J42" s="1"/>
-    </row>
-    <row r="43" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B43" s="2">
-        <v>0.68819444444444444</v>
-      </c>
-      <c r="C43" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="D43" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E43" s="1"/>
-      <c r="F43" s="1"/>
-      <c r="G43" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="H43" s="1"/>
-      <c r="I43" s="1"/>
-      <c r="J43" s="1"/>
-    </row>
-    <row r="44" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B44" s="2">
-        <v>0.68958333333333333</v>
-      </c>
-      <c r="C44" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="D44" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E44" s="1"/>
-      <c r="F44" s="1"/>
-      <c r="G44" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="H44" s="1"/>
-      <c r="I44" s="1"/>
-      <c r="J44" s="1"/>
-    </row>
-    <row r="45" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B45" s="1"/>
-      <c r="C45" s="1"/>
-      <c r="D45" s="1"/>
-      <c r="E45" s="1"/>
-      <c r="F45" s="1"/>
-      <c r="G45" s="1"/>
-      <c r="H45" s="1"/>
-      <c r="I45" s="1"/>
-      <c r="J45" s="1"/>
-    </row>
-    <row r="46" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B46" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="C46" s="6"/>
-      <c r="D46" s="6"/>
-      <c r="E46" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="F46" s="1">
-        <v>185</v>
-      </c>
-      <c r="G46" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="H46" s="1"/>
-      <c r="I46" s="1"/>
-      <c r="J46" s="1"/>
-    </row>
-    <row r="47" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B47" s="1"/>
-      <c r="C47" s="1"/>
-      <c r="D47" s="1"/>
-      <c r="E47" s="1"/>
-      <c r="F47" s="1"/>
-      <c r="G47" s="1"/>
-      <c r="H47" s="1"/>
-      <c r="I47" s="1"/>
-      <c r="J47" s="1"/>
-    </row>
-    <row r="48" spans="2:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="B48" s="2">
-        <v>0.53819444444444442</v>
-      </c>
-      <c r="C48" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="D48" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E48" s="1"/>
-      <c r="F48" s="1"/>
-      <c r="G48" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="H48" s="1"/>
-      <c r="I48" s="1"/>
-      <c r="J48" s="1" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="49" spans="2:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="B49" s="2">
-        <v>0.54027777777777775</v>
-      </c>
-      <c r="C49" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="D49" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E49" s="1"/>
-      <c r="F49" s="1"/>
-      <c r="G49" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="H49" s="1"/>
-      <c r="I49" s="1"/>
-      <c r="J49" s="1" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="50" spans="2:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="B50" s="2">
-        <v>0.54166666666666663</v>
-      </c>
-      <c r="C50" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="D50" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E50" s="1"/>
-      <c r="F50" s="1"/>
-      <c r="G50" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="H50" s="1"/>
-      <c r="I50" s="1"/>
-      <c r="J50" s="1" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="51" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B51" s="1"/>
-      <c r="C51" s="1"/>
-      <c r="D51" s="1"/>
-      <c r="E51" s="1"/>
-      <c r="F51" s="1"/>
-      <c r="G51" s="1"/>
-      <c r="H51" s="1"/>
-      <c r="I51" s="1"/>
-      <c r="J51" s="1"/>
-    </row>
-    <row r="52" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B52" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="C52" s="6"/>
-      <c r="D52" s="1"/>
-      <c r="E52" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="F52" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="G52" s="1"/>
-      <c r="H52" s="1"/>
-      <c r="I52" s="1"/>
-      <c r="J52" s="1"/>
-    </row>
-    <row r="53" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B53" s="1"/>
-      <c r="C53" s="1"/>
-      <c r="D53" s="1"/>
-      <c r="E53" s="1"/>
-      <c r="F53" s="1"/>
-      <c r="G53" s="1"/>
-      <c r="H53" s="1"/>
-      <c r="I53" s="1"/>
-      <c r="J53" s="1"/>
-    </row>
-    <row r="54" spans="2:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="B54" s="2">
-        <v>0.55902777777777779</v>
-      </c>
-      <c r="C54" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="D54" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E54" s="1"/>
-      <c r="F54" s="1"/>
-      <c r="G54" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="H54" s="1"/>
-      <c r="I54" s="1"/>
-      <c r="J54" s="1" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="55" spans="2:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="B55" s="2">
-        <v>0.56041666666666667</v>
-      </c>
-      <c r="C55" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="D55" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E55" s="1"/>
-      <c r="F55" s="1"/>
-      <c r="G55" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="H55" s="1"/>
-      <c r="I55" s="1"/>
-      <c r="J55" s="1" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="56" spans="2:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="B56" s="2">
-        <v>0.5625</v>
-      </c>
-      <c r="C56" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="D56" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E56" s="1"/>
-      <c r="F56" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="G56" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="H56" s="1"/>
-      <c r="I56" s="1"/>
-      <c r="J56" s="1" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="57" spans="2:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="B57" s="2">
-        <v>0.56597222222222221</v>
-      </c>
-      <c r="C57" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="D57" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E57" s="1"/>
-      <c r="F57" s="1"/>
-      <c r="G57" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="H57" s="1"/>
-      <c r="I57" s="1"/>
-      <c r="J57" s="1" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="58" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B58" s="1"/>
-      <c r="C58" s="1"/>
-      <c r="D58" s="1"/>
-      <c r="E58" s="1"/>
-      <c r="F58" s="1"/>
-      <c r="G58" s="1"/>
-      <c r="H58" s="1"/>
-      <c r="I58" s="1"/>
-      <c r="J58" s="1"/>
-    </row>
-    <row r="59" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B59" s="1"/>
-      <c r="C59" s="1"/>
-      <c r="D59" s="1"/>
-      <c r="E59" s="1"/>
-      <c r="F59" s="1"/>
-      <c r="G59" s="1"/>
-      <c r="H59" s="1"/>
-      <c r="I59" s="1"/>
-      <c r="J59" s="1"/>
-    </row>
-    <row r="60" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B60" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="C60" s="6"/>
-      <c r="D60" s="4"/>
-      <c r="E60" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="F60" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="G60" s="1"/>
-      <c r="H60" s="1"/>
-      <c r="I60" s="1"/>
-      <c r="J60" s="1"/>
-    </row>
-    <row r="61" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B61" s="1"/>
-      <c r="C61" s="1"/>
-      <c r="D61" s="1"/>
-      <c r="E61" s="1"/>
-      <c r="F61" s="1"/>
-      <c r="G61" s="1"/>
-      <c r="H61" s="1"/>
-      <c r="I61" s="1"/>
-      <c r="J61" s="1"/>
-    </row>
-    <row r="62" spans="2:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="B62" s="2">
-        <v>0.58333333333333337</v>
-      </c>
-      <c r="C62" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="D62" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E62" s="1"/>
-      <c r="F62" s="1"/>
-      <c r="G62" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="H62" s="1"/>
-      <c r="I62" s="1"/>
-      <c r="J62" s="1" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="63" spans="2:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="B63" s="2">
-        <v>0.58472222222222225</v>
-      </c>
-      <c r="C63" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="D63" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E63" s="1"/>
-      <c r="F63" s="1"/>
-      <c r="G63" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="H63" s="1"/>
-      <c r="I63" s="1"/>
-      <c r="J63" s="1" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="64" spans="2:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="B64" s="2">
-        <v>0.5854166666666667</v>
-      </c>
-      <c r="C64" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="D64" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E64" s="1"/>
-      <c r="F64" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="G64" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="H64" s="1"/>
-      <c r="I64" s="1"/>
-      <c r="J64" s="1" t="s">
-        <v>69</v>
-      </c>
-    </row>
+    </row>
+    <row r="37" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="43" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="49" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="57" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
-  <mergeCells count="13">
-    <mergeCell ref="B52:C52"/>
-    <mergeCell ref="B60:C60"/>
-    <mergeCell ref="B16:D16"/>
-    <mergeCell ref="B23:D23"/>
-    <mergeCell ref="B29:D29"/>
-    <mergeCell ref="B35:D35"/>
-    <mergeCell ref="B40:D40"/>
-    <mergeCell ref="B46:D46"/>
+  <mergeCells count="10">
     <mergeCell ref="B10:D10"/>
     <mergeCell ref="B2:E2"/>
     <mergeCell ref="K9:M9"/>
     <mergeCell ref="K15:M15"/>
     <mergeCell ref="B4:D4"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="B20:D20"/>
+    <mergeCell ref="B24:D24"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
